--- a/docs/assets/disciplinas/LOQ4064.xlsx
+++ b/docs/assets/disciplinas/LOQ4064.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>1 - Consolidação e aplicação dos conhecimentos adquiridos em cada uma das áreas específicas do curso de Engenharia Química.  2  Integração dos conhecimentos da Engenharia Química.</t>
+    <t>5816812 - João Paulo Alves Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -83,13 +83,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5816812 - João Paulo Alves Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Diagramas para estudos de processos químicos. 2  Estrutura e síntese de processos químicos industriais. 3  Análise de desempenho de processos químicos. 4  Estudo de planta química industrial</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -99,12 +96,6 @@
   </si>
   <si>
     <t>Programa:</t>
-  </si>
-  <si>
-    <t>1 - Diagramas para estudos de processos químicos: diagramas de bloco; Fluxogramas de processo (PFD); Fluxogramas de instrumentação e tubulação (P&amp;ID).
-2  Estrutura e síntese de processos químicos industriais: Hierarquia no planejamento de processos; Etapa 1- Descontínuo ou contínuo; Etapa 2 - Estrutura de entrada/saída de processo; Etapa 3- Estrutura de reciclo; 
-3  Análise de desempenho de processos químicos: Modelo de entrada e saída; Ferramentas para a avaliação de processos.
-4  Estudo de planta química industrial.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -122,29 +113,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas escritas e Apresentação de Trabalhos</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota será composta por ao menos uma prova escrita e trabalhos realizados e apresentados durante o semestre. O peso de cada atividade será definido segundo critérios do professor.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Média Final = (N + Prova Recuperação)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>PERLINGEIRO, Carlos A. G. Engenharia de processos: análise, simulação, otimização e síntese de processos químicos.  Editora Blucher, 2005.
-TURTON, BAILIE; WHITING; SHAEIWITZ  Analysis, Synthesis, and Design of Chemical Processes. 3. Ed. LTC Editora, 2005.
-COULSON, J. M.; RICHARDSON, J.F. Chemical Engineering Design: Chemical Engineering Volume 6. Editora Fourth, 2005.
-HIMMELBLAU, David M. Engenharia química princípios e cálculos. LTC Editora, 2006.
-FELDER, R.M; Rousseau, R.W. Princípios elementares dos processos químicos. LTC Editora, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -511,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,34 +626,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -683,85 +670,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4064.xlsx
+++ b/docs/assets/disciplinas/LOQ4064.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>5816812 - João Paulo Alves Silva</t>
+    <t>1 - Consolidação e aplicação dos conhecimentos adquiridos em cada uma das áreas específicas do curso de Engenharia Química.  2  Integração dos conhecimentos da Engenharia Química.</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -83,10 +83,13 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
+    <t>5816812 - João Paulo Alves Silva</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Diagramas para estudos de processos químicos. 2  Estrutura e síntese de processos químicos industriais. 3  Análise de desempenho de processos químicos. 4  Estudo de planta química industrial</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -96,6 +99,12 @@
   </si>
   <si>
     <t>Programa:</t>
+  </si>
+  <si>
+    <t>1 - Diagramas para estudos de processos químicos: diagramas de bloco; Fluxogramas de processo (PFD); Fluxogramas de instrumentação e tubulação (P&amp;ID).
+2  Estrutura e síntese de processos químicos industriais: Hierarquia no planejamento de processos; Etapa 1- Descontínuo ou contínuo; Etapa 2 - Estrutura de entrada/saída de processo; Etapa 3- Estrutura de reciclo; 
+3  Análise de desempenho de processos químicos: Modelo de entrada e saída; Ferramentas para a avaliação de processos.
+4  Estudo de planta química industrial.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -113,22 +122,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Provas escritas e Apresentação de Trabalhos</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas escritas e Apresentação de Trabalhos</t>
+    <t>A nota será composta por ao menos uma prova escrita e trabalhos realizados e apresentados durante o semestre. O peso de cada atividade será definido segundo critérios do professor.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota será composta por ao menos uma prova escrita e trabalhos realizados e apresentados durante o semestre. O peso de cada atividade será definido segundo critérios do professor.</t>
+    <t>Média Final = (N + Prova Recuperação)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Média Final = (N + Prova Recuperação)/2</t>
+    <t>PERLINGEIRO, Carlos A. G. Engenharia de processos: análise, simulação, otimização e síntese de processos químicos.  Editora Blucher, 2005.
+TURTON, BAILIE; WHITING; SHAEIWITZ  Analysis, Synthesis, and Design of Chemical Processes. 3. Ed. LTC Editora, 2005.
+COULSON, J. M.; RICHARDSON, J.F. Chemical Engineering Design: Chemical Engineering Volume 6. Editora Fourth, 2005.
+HIMMELBLAU, David M. Engenharia química princípios e cálculos. LTC Editora, 2006.
+FELDER, R.M; Rousseau, R.W. Princípios elementares dos processos químicos. LTC Editora, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -626,37 +642,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -670,74 +683,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
